--- a/biology/Médecine/1678_en_santé_et_médecine/1678_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1678_en_santé_et_médecine/1678_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1678_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1678_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1678 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1678_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1678_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>27 novembre : les habitants de Peyrilles, en Quercy signent un contrat par lequel ils remettent un fonds de cent livres à Durand Blaty, médecin, qui s'oblige « à servir fidèlement les habitants, visiter les malades à toute heure quand il sera appelé et donner son ordonnance, sans qu'il puisse exiger un autre salaire que le fonds susdit[1] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>27 novembre : les habitants de Peyrilles, en Quercy signent un contrat par lequel ils remettent un fonds de cent livres à Durand Blaty, médecin, qui s'oblige « à servir fidèlement les habitants, visiter les malades à toute heure quand il sera appelé et donner son ordonnance, sans qu'il puisse exiger un autre salaire que le fonds susdit ».</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1678_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1678_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Caspar Bartholin le Jeune publie son De ovariis mulierum[2], qui contient la « description des glandes du vagin qui porteront son nom[3] ».
-Daniel Duncan (1659-1735) publie son  Explication nouvelle et mécanique des actions animales[4], dans laquelle, reprenant les travaux publiés par Domenico Marchetti (1625-1688) en 1652, il introduit en anatomie le procédé qui permet de distinguer les artères et les veines par injection de colorants contrastés[5],[6].
-1678-1679 : parution en deux volumes du Dictionnaire pharmaceutique de De Meuve[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Caspar Bartholin le Jeune publie son De ovariis mulierum, qui contient la « description des glandes du vagin qui porteront son nom ».
+Daniel Duncan (1659-1735) publie son  Explication nouvelle et mécanique des actions animales, dans laquelle, reprenant les travaux publiés par Domenico Marchetti (1625-1688) en 1652, il introduit en anatomie le procédé qui permet de distinguer les artères et les veines par injection de colorants contrastés,.
+1678-1679 : parution en deux volumes du Dictionnaire pharmaceutique de De Meuve.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1678_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1678_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15 janvier : Lapeyronie (mort en 1747), Premier chirurgien et confident du roi Louis XV[8].
-31 mars : Christian-Maximilien Spener (mort en 1714), médecin et héraldiste allemand[9].
-Augustin Lippi (mort en 1705) : médecin, botaniste et explorateur français d'origine italienne[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15 janvier : Lapeyronie (mort en 1747), Premier chirurgien et confident du roi Louis XV.
+31 mars : Christian-Maximilien Spener (mort en 1714), médecin et héraldiste allemand.
+Augustin Lippi (mort en 1705) : médecin, botaniste et explorateur français d'origine italienne.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1678_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1678_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Marc Barot (né en 1615), professeur d'anatomie et de chirurgie de l'université de Pont-à-Mousson, deuxième titulaire de la chaire que son père, Pierre Barot († 1660), avait inaugurée[11].
-Nicolaas Hoboken (né en 1632), professeur de médecine et de mathématiques hollandais d'origine allemande[12].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Marc Barot (né en 1615), professeur d'anatomie et de chirurgie de l'université de Pont-à-Mousson, deuxième titulaire de la chaire que son père, Pierre Barot († 1660), avait inaugurée.
+Nicolaas Hoboken (né en 1632), professeur de médecine et de mathématiques hollandais d'origine allemande.</t>
         </is>
       </c>
     </row>
